--- a/20_営業/02_在庫/MD050/MD050_COI_007_A01_調整仕訳自動生成_補足資料.xlsx
+++ b/20_営業/02_在庫/MD050/MD050_COI_007_A01_調整仕訳自動生成_補足資料.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19401～19500\E_本稼動_19496【グループ会社】グループ会社統合対応\20_成果物\XXCOI007A01C 資材配賦情報の差額仕訳の生成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_20001～20100\E_本稼動_20008【在庫】北海道分社化在庫仕訳\20_成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="80">
   <si>
     <t>【所有権移転の場合】</t>
     <rPh sb="1" eb="6">
@@ -314,9 +314,6 @@
     <t>81270</t>
   </si>
   <si>
-    <t>製品売上原価</t>
-  </si>
-  <si>
     <t>管理部　経理課</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -351,26 +348,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>福岡支店</t>
-    <rPh sb="0" eb="2">
-      <t>フクオカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>（標準原価－営業原価）×数量</t>
-    <rPh sb="6" eb="8">
-      <t>エイギョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ゲンカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>スウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>81270</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -388,13 +365,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>■工場直送入庫/出庫（118,120）</t>
-    <rPh sb="8" eb="10">
-      <t>シュッコ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>作成仕訳</t>
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
@@ -419,7 +389,160 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>売上原価調整</t>
+    <rPh sb="0" eb="4">
+      <t>ウリアゲゲンカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2024/5/29追加</t>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2024/5/29変更</t>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="9"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>標準原価</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 営業原価</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>×数量</t>
+    </r>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジュンゲンカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(営業原価 - 標準原価)×数量</t>
+    <rPh sb="1" eb="5">
+      <t>エイギョウゲンカ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ヒョウジュンゲンカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入庫</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウコ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>■工場直送入庫（118）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>■工場返品（106）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>001</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>苫小牧支店</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>12204</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2142</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理部　経理課</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6865</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>81270</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>製品売上原価</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HKの工場返品</t>
+    <rPh sb="3" eb="5">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンピン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6240</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>作成されない</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -427,7 +550,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -532,6 +655,63 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -583,7 +763,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -643,6 +823,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -654,7 +845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -685,9 +876,6 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -744,13 +932,79 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -762,6 +1016,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1713,9 +1972,11 @@
   <sheetPr>
     <tabColor rgb="FFFF99CC"/>
   </sheetPr>
-  <dimension ref="A3:N40"/>
+  <dimension ref="A3:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1735,72 +1996,72 @@
     <col min="14" max="14" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="23"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26" t="s">
+      <c r="N4" s="22"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="26" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="28"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="30" t="s">
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="27"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30" t="s">
+      <c r="K6" s="29"/>
+      <c r="L6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30" t="s">
+      <c r="M6" s="29"/>
+      <c r="N6" s="29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1841,9 +2102,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>19</v>
@@ -1885,61 +2146,61 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="33" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="35"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="37" t="s">
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="34"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37" t="s">
+      <c r="G10" s="36"/>
+      <c r="H10" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37" t="s">
+      <c r="K10" s="36"/>
+      <c r="L10" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37" t="s">
+      <c r="M10" s="36"/>
+      <c r="N10" s="36" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1980,9 +2241,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>25</v>
@@ -2024,9 +2285,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>27</v>
@@ -2047,7 +2308,7 @@
         <v>31</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>14</v>
@@ -2067,815 +2328,1306 @@
       <c r="N13" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="O13" s="46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="3" t="s">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D15" s="5">
         <v>6859</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J15" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K15" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="13" t="s">
+      <c r="N15" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-    </row>
-    <row r="16" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
+    <row r="16" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="19"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="27"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="28"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26" t="s">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="26" t="s">
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="28"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="30" t="s">
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="34"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="35"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30" t="s">
+      <c r="E24" s="36"/>
+      <c r="F24" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30" t="s">
+      <c r="M24" s="36"/>
+      <c r="N24" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="39">
-        <v>3008</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="41" t="s">
+      <c r="C25" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="N20" s="41" t="s">
+      <c r="I25" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="49" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="9" t="s">
+      <c r="O25" s="46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="35"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="5">
-        <v>3718</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="B26" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="5">
-        <v>3718</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F27" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" s="46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="O28" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O29" s="46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="18"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="B33" s="51"/>
+      <c r="C33" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="28"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="O34" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B35" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" s="56">
+        <v>3539</v>
+      </c>
+      <c r="K35" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M35" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="O35" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B36" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="56">
+        <v>3539</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="J36" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="59"/>
+      <c r="C37" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="35"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="O38" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B39" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="56">
+        <v>3539</v>
+      </c>
+      <c r="K39" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="L39" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M39" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="O39" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B40" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="56">
+        <v>3539</v>
+      </c>
+      <c r="E40" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="J40" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="O40" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B41" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="J41" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="K41" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="M41" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="N41" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="O41" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B42" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B43" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="J43" s="56">
+        <v>3539</v>
+      </c>
+      <c r="K43" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="L43" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N43" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="O43" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="14"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="27"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="5">
+        <v>3718</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G50" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="4" t="s">
+      <c r="H50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="5">
+        <v>3718</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L50" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M50" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="5">
+        <v>3718</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K51" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="L51" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="M51" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="31"/>
+      <c r="C52" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="34"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="35"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="5">
+        <v>3718</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="J54" s="5">
+        <v>3718</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L54" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="5">
+        <v>3718</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="5">
+        <v>3718</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L55" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="M55" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D56" s="5">
         <v>3718</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E56" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F56" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G56" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H56" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N27" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="28"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="29"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="J56" s="5">
         <v>3718</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="K56" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" s="5">
-        <v>3718</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L34" s="22" t="s">
+      <c r="L56" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M34" s="22" t="s">
+      <c r="M56" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N34" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="5">
-        <v>3718</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="K35" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="L35" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="M35" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="N35" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="35"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="J37" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="5">
-        <v>3718</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J38" s="5">
-        <v>3718</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L38" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="M38" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="N38" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="5">
-        <v>3718</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="5">
-        <v>3718</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L39" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="M39" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="N39" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="5">
-        <v>3718</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J40" s="5">
-        <v>3718</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M40" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N40" s="13" t="s">
+      <c r="N56" s="13" t="s">
         <v>37</v>
       </c>
     </row>
